--- a/Results/Plot data/ipcc_ar6_figure_spm_regions.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_spm_regions.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-14 10:20:40</t>
+    <t xml:space="preserve">2021-10-15 13:43:15</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -173,22 +173,22 @@
     <t xml:space="preserve">Africa</t>
   </si>
   <si>
+    <t xml:space="preserve">Developed Countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Europe and West-Central Asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intl. Shipping &amp; Aviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latin America and Caribbean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle East</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asia and developing Pacific</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developed Countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Europe and West-Central Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle East</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intl. Shipping &amp; Aviation</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -3672,94 +3672,94 @@
         <v>51</v>
       </c>
       <c r="B3" t="n">
-        <v>9.90809557645126</v>
+        <v>15.7455350036861</v>
       </c>
       <c r="C3" t="n">
-        <v>10.086178162437</v>
+        <v>15.5668058761047</v>
       </c>
       <c r="D3" t="n">
-        <v>10.2718783610202</v>
+        <v>15.3749707098041</v>
       </c>
       <c r="E3" t="n">
-        <v>10.5894080120088</v>
+        <v>15.2777173278289</v>
       </c>
       <c r="F3" t="n">
-        <v>10.9213277715703</v>
+        <v>15.3263104095807</v>
       </c>
       <c r="G3" t="n">
-        <v>11.5408460893192</v>
+        <v>15.489599966487</v>
       </c>
       <c r="H3" t="n">
-        <v>11.6863532442421</v>
+        <v>15.7631065645733</v>
       </c>
       <c r="I3" t="n">
-        <v>13.6107063802197</v>
+        <v>15.9624615656495</v>
       </c>
       <c r="J3" t="n">
-        <v>11.71315933426</v>
+        <v>15.8889128623955</v>
       </c>
       <c r="K3" t="n">
-        <v>11.8334696690081</v>
+        <v>15.8593669075544</v>
       </c>
       <c r="L3" t="n">
-        <v>12.4622460428372</v>
+        <v>16.1824234366715</v>
       </c>
       <c r="M3" t="n">
-        <v>12.5330284671801</v>
+        <v>16.0142187946389</v>
       </c>
       <c r="N3" t="n">
-        <v>13.3998467984722</v>
+        <v>15.8097126653049</v>
       </c>
       <c r="O3" t="n">
-        <v>14.3379184763804</v>
+        <v>16.0747845924687</v>
       </c>
       <c r="P3" t="n">
-        <v>15.1033699596472</v>
+        <v>16.1911743534671</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.0061327256197</v>
+        <v>16.1192310624148</v>
       </c>
       <c r="R3" t="n">
-        <v>17.3455524617851</v>
+        <v>15.9792959258625</v>
       </c>
       <c r="S3" t="n">
-        <v>17.6745869759499</v>
+        <v>16.1931018938884</v>
       </c>
       <c r="T3" t="n">
-        <v>18.2347956679714</v>
+        <v>15.7712794587608</v>
       </c>
       <c r="U3" t="n">
-        <v>19.8905675802106</v>
+        <v>14.6403839237554</v>
       </c>
       <c r="V3" t="n">
-        <v>20.4152961374843</v>
+        <v>15.2299828466625</v>
       </c>
       <c r="W3" t="n">
-        <v>21.5689047212943</v>
+        <v>15.0536544559668</v>
       </c>
       <c r="X3" t="n">
-        <v>22.4439746012655</v>
+        <v>14.7067324459587</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.8307340898007</v>
+        <v>14.9188554691587</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.9498870561132</v>
+        <v>14.594116074655</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.0237844800807</v>
+        <v>14.4663687977887</v>
       </c>
       <c r="AB3" t="n">
-        <v>23.3279542376438</v>
+        <v>14.5339954454984</v>
       </c>
       <c r="AC3" t="n">
-        <v>23.9579750017652</v>
+        <v>14.3252493816163</v>
       </c>
       <c r="AD3" t="n">
-        <v>24.7175606290101</v>
+        <v>14.4323940474538</v>
       </c>
       <c r="AE3" t="n">
-        <v>25.8403784787994</v>
+        <v>14.1104411007832</v>
       </c>
     </row>
     <row r="4">
@@ -3767,94 +3767,94 @@
         <v>52</v>
       </c>
       <c r="B4" t="n">
-        <v>15.7455350036861</v>
+        <v>4.34455108002355</v>
       </c>
       <c r="C4" t="n">
-        <v>15.5668058761047</v>
+        <v>4.23112518494788</v>
       </c>
       <c r="D4" t="n">
-        <v>15.3749707098041</v>
+        <v>3.90375293302597</v>
       </c>
       <c r="E4" t="n">
-        <v>15.2777173278289</v>
+        <v>3.55612645995499</v>
       </c>
       <c r="F4" t="n">
-        <v>15.3263104095807</v>
+        <v>3.18200660338215</v>
       </c>
       <c r="G4" t="n">
-        <v>15.489599966487</v>
+        <v>3.03190356145307</v>
       </c>
       <c r="H4" t="n">
-        <v>15.7631065645733</v>
+        <v>2.91164644773911</v>
       </c>
       <c r="I4" t="n">
-        <v>15.9624615656495</v>
+        <v>2.72181958439123</v>
       </c>
       <c r="J4" t="n">
-        <v>15.8889128623955</v>
+        <v>2.7223917352792</v>
       </c>
       <c r="K4" t="n">
-        <v>15.8593669075544</v>
+        <v>2.72568765518876</v>
       </c>
       <c r="L4" t="n">
-        <v>16.1824234366715</v>
+        <v>2.82173542971422</v>
       </c>
       <c r="M4" t="n">
-        <v>16.0142187946389</v>
+        <v>2.84008319887012</v>
       </c>
       <c r="N4" t="n">
-        <v>15.8097126653049</v>
+        <v>2.87144740482896</v>
       </c>
       <c r="O4" t="n">
-        <v>16.0747845924687</v>
+        <v>2.96383054177743</v>
       </c>
       <c r="P4" t="n">
-        <v>16.1911743534671</v>
+        <v>3.19988858932357</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.1192310624148</v>
+        <v>3.08534494581523</v>
       </c>
       <c r="R4" t="n">
-        <v>15.9792959258625</v>
+        <v>3.13161036598898</v>
       </c>
       <c r="S4" t="n">
-        <v>16.1931018938884</v>
+        <v>3.1647413816658</v>
       </c>
       <c r="T4" t="n">
-        <v>15.7712794587608</v>
+        <v>3.23454831725637</v>
       </c>
       <c r="U4" t="n">
-        <v>14.6403839237554</v>
+        <v>3.0024294378487</v>
       </c>
       <c r="V4" t="n">
-        <v>15.2299828466625</v>
+        <v>3.18312590654297</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0536544559668</v>
+        <v>3.32973810005386</v>
       </c>
       <c r="X4" t="n">
-        <v>14.7067324459587</v>
+        <v>3.3894523067667</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.9188554691587</v>
+        <v>3.33949416539418</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.594116074655</v>
+        <v>3.29983386932526</v>
       </c>
       <c r="AA4" t="n">
-        <v>14.4663687977887</v>
+        <v>3.34535805090954</v>
       </c>
       <c r="AB4" t="n">
-        <v>14.5339954454984</v>
+        <v>3.40774783762414</v>
       </c>
       <c r="AC4" t="n">
-        <v>14.3252493816163</v>
+        <v>3.42679831105711</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.4323940474538</v>
+        <v>3.49773692599985</v>
       </c>
       <c r="AE4" t="n">
-        <v>14.1104411007832</v>
+        <v>3.49625382876753</v>
       </c>
     </row>
     <row r="5">
@@ -3862,94 +3862,94 @@
         <v>53</v>
       </c>
       <c r="B5" t="n">
-        <v>4.34455108002355</v>
+        <v>0.657585398928874</v>
       </c>
       <c r="C5" t="n">
-        <v>4.23112518494788</v>
+        <v>0.665672160889754</v>
       </c>
       <c r="D5" t="n">
-        <v>3.90375293302597</v>
+        <v>0.703740340671579</v>
       </c>
       <c r="E5" t="n">
-        <v>3.55612645995499</v>
+        <v>0.695986037784873</v>
       </c>
       <c r="F5" t="n">
-        <v>3.18200660338215</v>
+        <v>0.723832394536284</v>
       </c>
       <c r="G5" t="n">
-        <v>3.03190356145307</v>
+        <v>0.74917490294902</v>
       </c>
       <c r="H5" t="n">
-        <v>2.91164644773911</v>
+        <v>0.771862650204121</v>
       </c>
       <c r="I5" t="n">
-        <v>2.72181958439123</v>
+        <v>0.798977621941093</v>
       </c>
       <c r="J5" t="n">
-        <v>2.7223917352792</v>
+        <v>0.824375049616197</v>
       </c>
       <c r="K5" t="n">
-        <v>2.72568765518876</v>
+        <v>0.862916559230118</v>
       </c>
       <c r="L5" t="n">
-        <v>2.82173542971422</v>
+        <v>0.889951956205969</v>
       </c>
       <c r="M5" t="n">
-        <v>2.84008319887012</v>
+        <v>0.857035660374644</v>
       </c>
       <c r="N5" t="n">
-        <v>2.87144740482896</v>
+        <v>0.895560086125576</v>
       </c>
       <c r="O5" t="n">
-        <v>2.96383054177743</v>
+        <v>0.905522102765936</v>
       </c>
       <c r="P5" t="n">
-        <v>3.19988858932357</v>
+        <v>0.986722756931731</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.08534494581523</v>
+        <v>1.03402450250462</v>
       </c>
       <c r="R5" t="n">
-        <v>3.13161036598898</v>
+        <v>1.08825688220539</v>
       </c>
       <c r="S5" t="n">
-        <v>3.1647413816658</v>
+        <v>1.13798965902818</v>
       </c>
       <c r="T5" t="n">
-        <v>3.23454831725637</v>
+        <v>1.14785747339975</v>
       </c>
       <c r="U5" t="n">
-        <v>3.0024294378487</v>
+        <v>1.09291056523708</v>
       </c>
       <c r="V5" t="n">
-        <v>3.18312590654297</v>
+        <v>1.16604985695476</v>
       </c>
       <c r="W5" t="n">
-        <v>3.32973810005386</v>
+        <v>1.18404971383814</v>
       </c>
       <c r="X5" t="n">
-        <v>3.3894523067667</v>
+        <v>1.13946642920041</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.33949416539418</v>
+        <v>1.14544932980022</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.29983386932526</v>
+        <v>1.18380924242317</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.34535805090954</v>
+        <v>1.23754288276963</v>
       </c>
       <c r="AB5" t="n">
-        <v>3.40774783762414</v>
+        <v>1.28124371023205</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.42679831105711</v>
+        <v>1.3320666782821</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.49773692599985</v>
+        <v>1.36376222056813</v>
       </c>
       <c r="AE5" t="n">
-        <v>3.49625382876753</v>
+        <v>1.44144122413258</v>
       </c>
     </row>
     <row r="6">
@@ -4147,94 +4147,94 @@
         <v>56</v>
       </c>
       <c r="B8" t="n">
-        <v>0.657585398928874</v>
+        <v>9.90809557645126</v>
       </c>
       <c r="C8" t="n">
-        <v>0.665672160889754</v>
+        <v>10.086178162437</v>
       </c>
       <c r="D8" t="n">
-        <v>0.703740340671579</v>
+        <v>10.2718783610202</v>
       </c>
       <c r="E8" t="n">
-        <v>0.695986037784873</v>
+        <v>10.5894080120088</v>
       </c>
       <c r="F8" t="n">
-        <v>0.723832394536284</v>
+        <v>10.9213277715703</v>
       </c>
       <c r="G8" t="n">
-        <v>0.74917490294902</v>
+        <v>11.5408460893192</v>
       </c>
       <c r="H8" t="n">
-        <v>0.771862650204121</v>
+        <v>11.6863532442421</v>
       </c>
       <c r="I8" t="n">
-        <v>0.798977621941093</v>
+        <v>13.6107063802197</v>
       </c>
       <c r="J8" t="n">
-        <v>0.824375049616197</v>
+        <v>11.71315933426</v>
       </c>
       <c r="K8" t="n">
-        <v>0.862916559230118</v>
+        <v>11.8334696690081</v>
       </c>
       <c r="L8" t="n">
-        <v>0.889951956205969</v>
+        <v>12.4622460428372</v>
       </c>
       <c r="M8" t="n">
-        <v>0.857035660374644</v>
+        <v>12.5330284671801</v>
       </c>
       <c r="N8" t="n">
-        <v>0.895560086125576</v>
+        <v>13.3998467984722</v>
       </c>
       <c r="O8" t="n">
-        <v>0.905522102765936</v>
+        <v>14.3379184763804</v>
       </c>
       <c r="P8" t="n">
-        <v>0.986722756931731</v>
+        <v>15.1033699596472</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.03402450250462</v>
+        <v>16.0061327256197</v>
       </c>
       <c r="R8" t="n">
-        <v>1.08825688220539</v>
+        <v>17.3455524617851</v>
       </c>
       <c r="S8" t="n">
-        <v>1.13798965902818</v>
+        <v>17.6745869759499</v>
       </c>
       <c r="T8" t="n">
-        <v>1.14785747339975</v>
+        <v>18.2347956679714</v>
       </c>
       <c r="U8" t="n">
-        <v>1.09291056523708</v>
+        <v>19.8905675802106</v>
       </c>
       <c r="V8" t="n">
-        <v>1.16604985695476</v>
+        <v>20.4152961374843</v>
       </c>
       <c r="W8" t="n">
-        <v>1.18404971383814</v>
+        <v>21.5689047212943</v>
       </c>
       <c r="X8" t="n">
-        <v>1.13946642920041</v>
+        <v>22.4439746012655</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.14544932980022</v>
+        <v>22.8307340898007</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.18380924242317</v>
+        <v>23.9498870561132</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.23754288276963</v>
+        <v>24.0237844800807</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.28124371023205</v>
+        <v>23.3279542376438</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.3320666782821</v>
+        <v>23.9579750017652</v>
       </c>
       <c r="AD8" t="n">
-        <v>1.36376222056813</v>
+        <v>24.7175606290101</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.44144122413258</v>
+        <v>25.8403784787994</v>
       </c>
     </row>
   </sheetData>
@@ -4375,7 +4375,7 @@
         <v>1990</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -4392,7 +4392,7 @@
         <v>1990</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -4409,7 +4409,7 @@
         <v>1990</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -4460,7 +4460,7 @@
         <v>1990</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
@@ -4494,7 +4494,7 @@
         <v>2000</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>64</v>
@@ -4511,7 +4511,7 @@
         <v>2000</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>65</v>
@@ -4528,7 +4528,7 @@
         <v>2000</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>66</v>
@@ -4579,7 +4579,7 @@
         <v>2000</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>69</v>
@@ -4613,7 +4613,7 @@
         <v>2010</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
@@ -4630,7 +4630,7 @@
         <v>2010</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
         <v>65</v>
@@ -4647,7 +4647,7 @@
         <v>2010</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
@@ -4698,7 +4698,7 @@
         <v>2010</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
         <v>69</v>
@@ -4732,7 +4732,7 @@
         <v>2019</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
         <v>64</v>
@@ -4749,7 +4749,7 @@
         <v>2019</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>65</v>
@@ -4766,7 +4766,7 @@
         <v>2019</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
         <v>66</v>
@@ -4817,7 +4817,7 @@
         <v>2019</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
         <v>69</v>
@@ -4883,7 +4883,7 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n">
         <v>1.88753466723905</v>
@@ -4911,7 +4911,7 @@
         <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
         <v>1.63382613171217</v>
@@ -4967,7 +4967,7 @@
         <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
         <v>-0.295556465896252</v>
@@ -5105,7 +5105,7 @@
         <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" t="n">
         <v>1.88292738563018</v>
@@ -5161,7 +5161,7 @@
         <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" t="n">
         <v>0.0505810411435714</v>
@@ -5189,7 +5189,7 @@
         <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" t="n">
         <v>-0.496984730377459</v>
@@ -5217,7 +5217,7 @@
         <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="n">
         <v>2.7002701658648</v>
@@ -5301,7 +5301,7 @@
         <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D17" t="n">
         <v>3.17725505294015</v>
@@ -5357,7 +5357,7 @@
         <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" t="n">
         <v>1.12022442418709</v>
@@ -5385,7 +5385,7 @@
         <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" t="n">
         <v>-1.3926766271928</v>
@@ -5469,7 +5469,7 @@
         <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" t="n">
         <v>-2.07042548387565</v>
@@ -5497,7 +5497,7 @@
         <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D24" t="n">
         <v>2.67402720329648</v>
@@ -5553,7 +5553,7 @@
         <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" t="n">
         <v>2.3075286311742</v>
@@ -5665,7 +5665,7 @@
         <v>137</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D30" t="n">
         <v>0.219042698574134</v>
@@ -5693,7 +5693,7 @@
         <v>139</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" t="n">
         <v>-0.591131633381525</v>
@@ -5805,7 +5805,7 @@
         <v>147</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D35" t="n">
         <v>3.60827716891423</v>
@@ -5861,7 +5861,7 @@
         <v>151</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" t="n">
         <v>0.722252220677122</v>
@@ -6001,7 +6001,7 @@
         <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D42" t="n">
         <v>2.19415906900959</v>
@@ -6141,7 +6141,7 @@
         <v>171</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D47" t="n">
         <v>-0.876119250174912</v>
@@ -6223,7 +6223,7 @@
         <v>177</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D50" t="n">
         <v>-1.21217083958614</v>
@@ -6279,7 +6279,7 @@
         <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" t="n">
         <v>-0.670863653229914</v>
@@ -6307,7 +6307,7 @@
         <v>183</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" t="n">
         <v>-1.28907531501986</v>
@@ -6335,7 +6335,7 @@
         <v>185</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D54" t="n">
         <v>-3.90208176144575</v>
@@ -6587,7 +6587,7 @@
         <v>203</v>
       </c>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D63" t="n">
         <v>-2.42426713080754</v>
@@ -6669,7 +6669,7 @@
         <v>209</v>
       </c>
       <c r="C66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D66" t="n">
         <v>0.188678613858961</v>
@@ -6697,7 +6697,7 @@
         <v>211</v>
       </c>
       <c r="C67" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D67" t="n">
         <v>4.43369111958642</v>
@@ -6725,7 +6725,7 @@
         <v>213</v>
       </c>
       <c r="C68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D68" t="n">
         <v>-2.87188665011717</v>
@@ -6753,7 +6753,7 @@
         <v>215</v>
       </c>
       <c r="C69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D69" t="n">
         <v>-1.62051639729969</v>
@@ -6807,7 +6807,7 @@
         <v>219</v>
       </c>
       <c r="C71" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D71" t="n">
         <v>1.38953886658792</v>
@@ -6891,7 +6891,7 @@
         <v>225</v>
       </c>
       <c r="C74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D74" t="n">
         <v>3.71342031458155</v>
@@ -6919,7 +6919,7 @@
         <v>227</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D75" t="n">
         <v>-1.58009874785103</v>
@@ -6975,7 +6975,7 @@
         <v>231</v>
       </c>
       <c r="C77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D77" t="n">
         <v>5.75587823662271</v>
@@ -7003,7 +7003,7 @@
         <v>233</v>
       </c>
       <c r="C78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D78" t="n">
         <v>-1.88400433764179</v>
@@ -7031,7 +7031,7 @@
         <v>235</v>
       </c>
       <c r="C79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D79" t="n">
         <v>-2.2223793189925</v>
@@ -7113,7 +7113,7 @@
         <v>241</v>
       </c>
       <c r="C82" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D82" t="n">
         <v>0.651730665482142</v>
@@ -7309,7 +7309,7 @@
         <v>255</v>
       </c>
       <c r="C89" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D89" t="n">
         <v>0.124498001878326</v>
@@ -7337,7 +7337,7 @@
         <v>257</v>
       </c>
       <c r="C90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D90" t="n">
         <v>-0.0927671905609939</v>
@@ -7365,7 +7365,7 @@
         <v>259</v>
       </c>
       <c r="C91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D91" t="n">
         <v>-0.608050757095857</v>
@@ -7393,7 +7393,7 @@
         <v>261</v>
       </c>
       <c r="C92" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D92" t="n">
         <v>3.06307056436792</v>
@@ -7421,7 +7421,7 @@
         <v>263</v>
       </c>
       <c r="C93" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D93" t="n">
         <v>4.365259961549</v>
@@ -7505,7 +7505,7 @@
         <v>269</v>
       </c>
       <c r="C96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D96" t="n">
         <v>-0.157216453121922</v>
@@ -7561,7 +7561,7 @@
         <v>273</v>
       </c>
       <c r="C98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D98" t="n">
         <v>-2.29665830482827</v>
@@ -7617,7 +7617,7 @@
         <v>277</v>
       </c>
       <c r="C100" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D100" t="n">
         <v>-0.763462193449926</v>
@@ -7673,7 +7673,7 @@
         <v>281</v>
       </c>
       <c r="C102" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D102" t="n">
         <v>1.56455191568552</v>
@@ -7729,7 +7729,7 @@
         <v>285</v>
       </c>
       <c r="C104" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D104" t="n">
         <v>2.66488131569613</v>
@@ -7757,7 +7757,7 @@
         <v>287</v>
       </c>
       <c r="C105" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D105" t="n">
         <v>-2.94131563492069</v>
@@ -7783,7 +7783,7 @@
         <v>289</v>
       </c>
       <c r="C106" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D106" t="n">
         <v>1.07552094168513</v>
@@ -7839,7 +7839,7 @@
         <v>293</v>
       </c>
       <c r="C108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D108" t="n">
         <v>4.78909955963078</v>
@@ -7867,7 +7867,7 @@
         <v>295</v>
       </c>
       <c r="C109" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D109" t="n">
         <v>16.2536292048196</v>
@@ -7895,7 +7895,7 @@
         <v>297</v>
       </c>
       <c r="C110" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D110" t="n">
         <v>-0.0252478709071191</v>
@@ -8035,7 +8035,7 @@
         <v>307</v>
       </c>
       <c r="C115" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D115" t="n">
         <v>0.0207853102048183</v>
@@ -8063,7 +8063,7 @@
         <v>309</v>
       </c>
       <c r="C116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D116" t="n">
         <v>-1.61159135821753</v>
@@ -8091,7 +8091,7 @@
         <v>311</v>
       </c>
       <c r="C117" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D117" t="n">
         <v>7.63050515212553</v>
@@ -8119,7 +8119,7 @@
         <v>313</v>
       </c>
       <c r="C118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D118" t="n">
         <v>-0.341241544901771</v>
@@ -8203,7 +8203,7 @@
         <v>319</v>
       </c>
       <c r="C121" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D121" t="n">
         <v>1.9668086931846</v>
@@ -8231,7 +8231,7 @@
         <v>321</v>
       </c>
       <c r="C122" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D122" t="n">
         <v>7.32296652377789</v>
@@ -8287,7 +8287,7 @@
         <v>325</v>
       </c>
       <c r="C124" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D124" t="n">
         <v>-3.93493083245203</v>
@@ -8315,7 +8315,7 @@
         <v>327</v>
       </c>
       <c r="C125" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D125" t="n">
         <v>0.240409553793963</v>
@@ -8479,7 +8479,7 @@
         <v>339</v>
       </c>
       <c r="C131" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D131" t="n">
         <v>1.93917638736816</v>
@@ -8507,7 +8507,7 @@
         <v>341</v>
       </c>
       <c r="C132" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D132" t="n">
         <v>0.368439200850967</v>
@@ -8535,7 +8535,7 @@
         <v>343</v>
       </c>
       <c r="C133" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D133" t="n">
         <v>9.27339115714427</v>
@@ -8645,7 +8645,7 @@
         <v>351</v>
       </c>
       <c r="C137" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D137" t="n">
         <v>3.36800500222925</v>
@@ -8701,7 +8701,7 @@
         <v>355</v>
       </c>
       <c r="C139" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D139" t="n">
         <v>2.68225195405152</v>
@@ -8729,7 +8729,7 @@
         <v>357</v>
       </c>
       <c r="C140" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D140" t="n">
         <v>3.93561394411843</v>
@@ -8757,7 +8757,7 @@
         <v>359</v>
       </c>
       <c r="C141" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D141" t="n">
         <v>-0.82749899034259</v>
@@ -8811,7 +8811,7 @@
         <v>363</v>
       </c>
       <c r="C143" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D143" t="n">
         <v>7.9063592700533</v>
@@ -8839,7 +8839,7 @@
         <v>365</v>
       </c>
       <c r="C144" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D144" t="n">
         <v>0.362819797211378</v>
@@ -8951,7 +8951,7 @@
         <v>373</v>
       </c>
       <c r="C148" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D148" t="n">
         <v>0.63590171824599</v>
@@ -8977,7 +8977,7 @@
         <v>375</v>
       </c>
       <c r="C149" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D149" t="n">
         <v>0.261828285897225</v>
@@ -9005,7 +9005,7 @@
         <v>377</v>
       </c>
       <c r="C150" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D150" t="n">
         <v>-0.5986283053385</v>
@@ -9061,7 +9061,7 @@
         <v>381</v>
       </c>
       <c r="C152" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D152" t="n">
         <v>3.25967645035219</v>
@@ -9089,7 +9089,7 @@
         <v>383</v>
       </c>
       <c r="C153" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D153" t="n">
         <v>-5.54712846162609</v>
@@ -9145,7 +9145,7 @@
         <v>387</v>
       </c>
       <c r="C155" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D155" t="n">
         <v>11.1006683025762</v>
@@ -9229,7 +9229,7 @@
         <v>393</v>
       </c>
       <c r="C158" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D158" t="n">
         <v>4.22185517678035</v>
@@ -9257,7 +9257,7 @@
         <v>395</v>
       </c>
       <c r="C159" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D159" t="n">
         <v>-0.589740756309531</v>
@@ -9285,7 +9285,7 @@
         <v>397</v>
       </c>
       <c r="C160" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D160" t="n">
         <v>-0.680889619455094</v>
@@ -9395,7 +9395,7 @@
         <v>405</v>
       </c>
       <c r="C164" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D164" t="n">
         <v>-0.0381968797454335</v>
@@ -9423,7 +9423,7 @@
         <v>407</v>
       </c>
       <c r="C165" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D165" t="n">
         <v>0.576902033235038</v>
@@ -9505,7 +9505,7 @@
         <v>413</v>
       </c>
       <c r="C168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D168" t="n">
         <v>-3.47892671790642</v>
@@ -9531,7 +9531,7 @@
         <v>415</v>
       </c>
       <c r="C169" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D169" t="n">
         <v>4.91887455562661</v>
@@ -9643,7 +9643,7 @@
         <v>423</v>
       </c>
       <c r="C173" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D173" t="n">
         <v>0.473405794179094</v>
@@ -9725,7 +9725,7 @@
         <v>429</v>
       </c>
       <c r="C176" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D176" t="n">
         <v>2.03239600402538</v>
@@ -9753,7 +9753,7 @@
         <v>431</v>
       </c>
       <c r="C177" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D177" t="n">
         <v>-1.20944827317389</v>
@@ -9781,7 +9781,7 @@
         <v>433</v>
       </c>
       <c r="C178" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D178" t="n">
         <v>-1.46699757587542</v>
@@ -9809,7 +9809,7 @@
         <v>435</v>
       </c>
       <c r="C179" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D179" t="n">
         <v>4.71235394664404</v>
@@ -9893,7 +9893,7 @@
         <v>441</v>
       </c>
       <c r="C182" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D182" t="n">
         <v>-1.48391131339817</v>
@@ -9921,7 +9921,7 @@
         <v>443</v>
       </c>
       <c r="C183" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D183" t="n">
         <v>3.6120691946842</v>
@@ -10117,7 +10117,7 @@
         <v>457</v>
       </c>
       <c r="C190" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D190" t="n">
         <v>-1.76920242102037</v>
@@ -10145,7 +10145,7 @@
         <v>459</v>
       </c>
       <c r="C191" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D191" t="n">
         <v>-1.35223680562351</v>
@@ -10201,7 +10201,7 @@
         <v>463</v>
       </c>
       <c r="C193" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D193" t="n">
         <v>0.170237417811148</v>
@@ -10227,7 +10227,7 @@
         <v>465</v>
       </c>
       <c r="C194" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D194" t="n">
         <v>5.69752057567618</v>
@@ -10283,7 +10283,7 @@
         <v>469</v>
       </c>
       <c r="C196" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D196" t="n">
         <v>0.5348290653856</v>
@@ -10311,7 +10311,7 @@
         <v>471</v>
       </c>
       <c r="C197" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D197" t="n">
         <v>0.492224474281233</v>
@@ -10367,7 +10367,7 @@
         <v>475</v>
       </c>
       <c r="C199" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D199" t="n">
         <v>0.666709658261566</v>
@@ -10393,7 +10393,7 @@
         <v>477</v>
       </c>
       <c r="C200" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D200" t="n">
         <v>1.41555031426026</v>
@@ -10477,7 +10477,7 @@
         <v>483</v>
       </c>
       <c r="C203" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D203" t="n">
         <v>3.27576363537576</v>
@@ -10505,7 +10505,7 @@
         <v>485</v>
       </c>
       <c r="C204" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D204" t="n">
         <v>3.39142571992683</v>
@@ -10561,7 +10561,7 @@
         <v>489</v>
       </c>
       <c r="C206" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D206" t="n">
         <v>1.30021427501927</v>
@@ -10617,7 +10617,7 @@
         <v>493</v>
       </c>
       <c r="C208" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D208" t="n">
         <v>-4.16105851647101</v>
@@ -10673,7 +10673,7 @@
         <v>497</v>
       </c>
       <c r="C210" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D210" t="n">
         <v>-3.13681919422224</v>
@@ -10701,7 +10701,7 @@
         <v>499</v>
       </c>
       <c r="C211" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D211" t="n">
         <v>-0.841852829265866</v>
@@ -10757,7 +10757,7 @@
         <v>503</v>
       </c>
       <c r="C213" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D213" t="n">
         <v>-0.852607865167654</v>
@@ -10785,7 +10785,7 @@
         <v>505</v>
       </c>
       <c r="C214" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D214" t="n">
         <v>1.2805321231137</v>
@@ -10841,7 +10841,7 @@
         <v>509</v>
       </c>
       <c r="C216" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D216" t="n">
         <v>5.33865650142378</v>
@@ -10897,7 +10897,7 @@
         <v>513</v>
       </c>
       <c r="C218" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D218" t="n">
         <v>-0.405363716611573</v>
@@ -35312,28 +35312,28 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" t="n">
-        <v>9.90809557645126</v>
+        <v>15.7455350036861</v>
       </c>
       <c r="D3" t="n">
-        <v>20.4152961374843</v>
+        <v>15.2299828466625</v>
       </c>
       <c r="E3" t="n">
-        <v>25.8403784787994</v>
+        <v>14.1104411007832</v>
       </c>
       <c r="F3" t="n">
-        <v>15.9322829023481</v>
+        <v>-1.63509390290291</v>
       </c>
       <c r="G3" t="n">
-        <v>160.800658203325</v>
+        <v>-10.384492508639</v>
       </c>
       <c r="H3" t="n">
-        <v>5.42508234131509</v>
+        <v>-1.11954174587933</v>
       </c>
       <c r="I3" t="n">
-        <v>26.5736157084401</v>
+        <v>-7.35090615105098</v>
       </c>
     </row>
     <row r="4">
@@ -35341,28 +35341,28 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" t="n">
-        <v>15.7455350036861</v>
+        <v>4.34455108002355</v>
       </c>
       <c r="D4" t="n">
-        <v>15.2299828466625</v>
+        <v>3.18312590654297</v>
       </c>
       <c r="E4" t="n">
-        <v>14.1104411007832</v>
+        <v>3.49625382876753</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.63509390290291</v>
+        <v>-0.848297251256022</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.384492508639</v>
+        <v>-19.5255444263628</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.11954174587933</v>
+        <v>0.313127922224565</v>
       </c>
       <c r="I4" t="n">
-        <v>-7.35090615105098</v>
+        <v>9.8371202213813</v>
       </c>
     </row>
     <row r="5">
@@ -35370,28 +35370,28 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C5" t="n">
-        <v>4.34455108002355</v>
+        <v>0.657585398928874</v>
       </c>
       <c r="D5" t="n">
-        <v>3.18312590654297</v>
+        <v>1.16604985695476</v>
       </c>
       <c r="E5" t="n">
-        <v>3.49625382876753</v>
+        <v>1.44144122413258</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.848297251256022</v>
+        <v>0.783855825203702</v>
       </c>
       <c r="G5" t="n">
-        <v>-19.5255444263628</v>
+        <v>119.202133514599</v>
       </c>
       <c r="H5" t="n">
-        <v>0.313127922224565</v>
+        <v>0.275391367177816</v>
       </c>
       <c r="I5" t="n">
-        <v>9.8371202213813</v>
+        <v>23.6174607402315</v>
       </c>
     </row>
     <row r="6">
@@ -35457,28 +35457,28 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C8" t="n">
-        <v>0.657585398928874</v>
+        <v>9.90809557645126</v>
       </c>
       <c r="D8" t="n">
-        <v>1.16604985695476</v>
+        <v>20.4152961374843</v>
       </c>
       <c r="E8" t="n">
-        <v>1.44144122413258</v>
+        <v>25.8403784787994</v>
       </c>
       <c r="F8" t="n">
-        <v>0.783855825203702</v>
+        <v>15.9322829023481</v>
       </c>
       <c r="G8" t="n">
-        <v>119.202133514599</v>
+        <v>160.800658203325</v>
       </c>
       <c r="H8" t="n">
-        <v>0.275391367177816</v>
+        <v>5.42508234131509</v>
       </c>
       <c r="I8" t="n">
-        <v>23.6174607402315</v>
+        <v>26.5736157084401</v>
       </c>
     </row>
   </sheetData>
@@ -35546,7 +35546,7 @@
         <v>1990</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C3" t="n">
         <v>0.0382806493638748</v>
@@ -35569,7 +35569,7 @@
         <v>1990</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
         <v>0.957428783290126</v>
@@ -35592,7 +35592,7 @@
         <v>1990</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" t="n">
         <v>4.25321657185773</v>
@@ -35684,7 +35684,7 @@
         <v>2010</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C9" t="n">
         <v>0.0375432969833395</v>
@@ -35707,7 +35707,7 @@
         <v>2010</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="n">
         <v>0.957671577190072</v>
@@ -35730,7 +35730,7 @@
         <v>2010</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="n">
         <v>1.60386822732916</v>
@@ -35822,7 +35822,7 @@
         <v>2019</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C15" t="n">
         <v>0.0367777996986676</v>
@@ -35845,7 +35845,7 @@
         <v>2019</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n">
         <v>0.956567860644858</v>
@@ -35868,7 +35868,7 @@
         <v>2019</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" t="n">
         <v>2.13271648001072</v>

--- a/Results/Plot data/ipcc_ar6_figure_spm_regions.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_spm_regions.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-11-02 15:29:36</t>
+    <t xml:space="preserve">2021-11-02 15:46:48</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>

--- a/Results/Plot data/ipcc_ar6_figure_spm_regions.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_spm_regions.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-11-02 15:46:48</t>
+    <t xml:space="preserve">2021-11-03 10:33:28</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
